--- a/data-raw/data/recepten.xlsx
+++ b/data-raw/data/recepten.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eekhouti\Documents\GitHub\wisselmenu\data-raw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50A92E-D6E3-418F-BB9F-150CBFB943B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D195A8-D08A-4050-9506-73C3D9880A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEE8369E-45A2-425F-AF40-529136F4C573}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9108" xr2:uid="{DEE8369E-45A2-425F-AF40-529136F4C573}"/>
   </bookViews>
   <sheets>
     <sheet name="recepten" sheetId="1" r:id="rId1"/>
-    <sheet name="producten" sheetId="2" r:id="rId2"/>
+    <sheet name="boodschappen" sheetId="3" r:id="rId2"/>
+    <sheet name="producten" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Extract" localSheetId="1">producten!$A:$A</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">producten!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="165">
   <si>
     <t>genre</t>
   </si>
@@ -430,6 +431,108 @@
   </si>
   <si>
     <t>noten</t>
+  </si>
+  <si>
+    <t>producten</t>
+  </si>
+  <si>
+    <t>aantal</t>
+  </si>
+  <si>
+    <t>appels</t>
+  </si>
+  <si>
+    <t>bananen</t>
+  </si>
+  <si>
+    <t>kiwi's</t>
+  </si>
+  <si>
+    <t>peren</t>
+  </si>
+  <si>
+    <t>brood</t>
+  </si>
+  <si>
+    <t>volkoren brood</t>
+  </si>
+  <si>
+    <t>afbak broodjes</t>
+  </si>
+  <si>
+    <t>huishoud</t>
+  </si>
+  <si>
+    <t>wc papier</t>
+  </si>
+  <si>
+    <t>vochtig toiletpapier</t>
+  </si>
+  <si>
+    <t>toiletblokjes</t>
+  </si>
+  <si>
+    <t>allesreiniger</t>
+  </si>
+  <si>
+    <t>dolce gusto lungo</t>
+  </si>
+  <si>
+    <t>dolce gusto grande</t>
+  </si>
+  <si>
+    <t>dolce gusto</t>
+  </si>
+  <si>
+    <t>koffiethee</t>
+  </si>
+  <si>
+    <t>vleeswaren</t>
+  </si>
+  <si>
+    <t>boterhamworst</t>
+  </si>
+  <si>
+    <t>gerookte kip</t>
+  </si>
+  <si>
+    <t>hummus</t>
+  </si>
+  <si>
+    <t>ontbijt</t>
+  </si>
+  <si>
+    <t>cracottes</t>
+  </si>
+  <si>
+    <t>ontbijtcrackers</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>volkoren beschuit</t>
+  </si>
+  <si>
+    <t>cruesly</t>
+  </si>
+  <si>
+    <t>cornflakes</t>
+  </si>
+  <si>
+    <t>melk</t>
+  </si>
+  <si>
+    <t>vla</t>
+  </si>
+  <si>
+    <t>boter</t>
+  </si>
+  <si>
+    <t>kaas (30+)</t>
+  </si>
+  <si>
+    <t>eieren</t>
   </si>
 </sst>
 </file>
@@ -789,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129ED249-F640-46C9-8763-FFC59B9BA506}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,6 +1070,9 @@
       <c r="G8">
         <v>25</v>
       </c>
+      <c r="H8">
+        <v>450</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1061,11 +1167,11 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1359,6 +1465,12 @@
       <c r="B27" t="s">
         <v>35</v>
       </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
       <c r="F27" t="s">
         <v>36</v>
       </c>
@@ -1798,7 +1910,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1814,8 +1926,14 @@
       <c r="F49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1831,8 +1949,14 @@
       <c r="F50" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -1848,8 +1972,14 @@
       <c r="F51" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -1865,8 +1995,14 @@
       <c r="F52" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1882,8 +2018,14 @@
       <c r="F53" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -1896,8 +2038,11 @@
       <c r="F54" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -1913,8 +2058,11 @@
       <c r="F55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -1930,8 +2078,11 @@
       <c r="F56" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1947,8 +2098,11 @@
       <c r="F57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -1964,8 +2118,11 @@
       <c r="F58" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -1975,8 +2132,11 @@
       <c r="F59" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -1986,8 +2146,11 @@
       <c r="F60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2003,8 +2166,11 @@
       <c r="F61" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>34</v>
       </c>
@@ -2014,8 +2180,11 @@
       <c r="F62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>34</v>
       </c>
@@ -2028,8 +2197,11 @@
       <c r="F63" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>34</v>
       </c>
@@ -2044,6 +2216,9 @@
       </c>
       <c r="F64" t="s">
         <v>39</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -2059,6 +2234,9 @@
       <c r="F65" t="s">
         <v>82</v>
       </c>
+      <c r="G65">
+        <v>15</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2070,6 +2248,9 @@
       <c r="F66" t="s">
         <v>70</v>
       </c>
+      <c r="G66">
+        <v>15</v>
+      </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -2451,7 +2632,7 @@
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F82" t="s">
         <v>47</v>
@@ -2499,6 +2680,9 @@
       <c r="F84" t="s">
         <v>14</v>
       </c>
+      <c r="G84">
+        <v>30</v>
+      </c>
       <c r="H84">
         <v>450</v>
       </c>
@@ -2522,6 +2706,9 @@
       <c r="F85" t="s">
         <v>101</v>
       </c>
+      <c r="G85">
+        <v>30</v>
+      </c>
       <c r="H85">
         <v>450</v>
       </c>
@@ -2542,6 +2729,9 @@
       <c r="F86" t="s">
         <v>90</v>
       </c>
+      <c r="G86">
+        <v>30</v>
+      </c>
       <c r="H86">
         <v>450</v>
       </c>
@@ -2565,6 +2755,9 @@
       <c r="F87" t="s">
         <v>102</v>
       </c>
+      <c r="G87">
+        <v>30</v>
+      </c>
       <c r="H87">
         <v>450</v>
       </c>
@@ -2585,6 +2778,9 @@
       <c r="F88" t="s">
         <v>69</v>
       </c>
+      <c r="G88">
+        <v>30</v>
+      </c>
       <c r="H88">
         <v>450</v>
       </c>
@@ -2605,6 +2801,9 @@
       <c r="F89" t="s">
         <v>37</v>
       </c>
+      <c r="G89">
+        <v>30</v>
+      </c>
       <c r="H89">
         <v>450</v>
       </c>
@@ -2628,6 +2827,9 @@
       <c r="F90" t="s">
         <v>104</v>
       </c>
+      <c r="G90">
+        <v>30</v>
+      </c>
       <c r="H90">
         <v>450</v>
       </c>
@@ -2651,6 +2853,9 @@
       <c r="F91" t="s">
         <v>47</v>
       </c>
+      <c r="G91">
+        <v>30</v>
+      </c>
       <c r="H91">
         <v>450</v>
       </c>
@@ -2671,6 +2876,9 @@
       <c r="F92" t="s">
         <v>106</v>
       </c>
+      <c r="G92">
+        <v>30</v>
+      </c>
       <c r="H92">
         <v>450</v>
       </c>
@@ -2694,6 +2902,9 @@
       <c r="F93" t="s">
         <v>12</v>
       </c>
+      <c r="G93">
+        <v>30</v>
+      </c>
       <c r="H93">
         <v>450</v>
       </c>
@@ -2717,6 +2928,9 @@
       <c r="F94" t="s">
         <v>107</v>
       </c>
+      <c r="G94">
+        <v>30</v>
+      </c>
       <c r="H94">
         <v>450</v>
       </c>
@@ -2734,6 +2948,9 @@
       <c r="F95" t="s">
         <v>108</v>
       </c>
+      <c r="G95">
+        <v>30</v>
+      </c>
       <c r="H95">
         <v>450</v>
       </c>
@@ -2754,6 +2971,9 @@
       <c r="F96" t="s">
         <v>109</v>
       </c>
+      <c r="G96">
+        <v>30</v>
+      </c>
       <c r="H96">
         <v>450</v>
       </c>
@@ -2777,6 +2997,9 @@
       <c r="F97" t="s">
         <v>112</v>
       </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
       <c r="H97">
         <v>470</v>
       </c>
@@ -2800,6 +3023,9 @@
       <c r="F98" t="s">
         <v>113</v>
       </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
       <c r="H98">
         <v>470</v>
       </c>
@@ -2823,6 +3049,9 @@
       <c r="F99" t="s">
         <v>23</v>
       </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
       <c r="H99">
         <v>470</v>
       </c>
@@ -2846,6 +3075,9 @@
       <c r="F100" t="s">
         <v>36</v>
       </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
       <c r="H100">
         <v>470</v>
       </c>
@@ -2866,6 +3098,9 @@
       <c r="F101" t="s">
         <v>77</v>
       </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
       <c r="H101">
         <v>470</v>
       </c>
@@ -2886,6 +3121,9 @@
       <c r="F102" t="s">
         <v>114</v>
       </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
       <c r="H102">
         <v>470</v>
       </c>
@@ -2906,6 +3144,9 @@
       <c r="F103" t="s">
         <v>34</v>
       </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
       <c r="H103">
         <v>470</v>
       </c>
@@ -2929,6 +3170,9 @@
       <c r="F104" t="s">
         <v>39</v>
       </c>
+      <c r="G104">
+        <v>20</v>
+      </c>
       <c r="H104">
         <v>470</v>
       </c>
@@ -2952,6 +3196,9 @@
       <c r="F105" t="s">
         <v>54</v>
       </c>
+      <c r="G105">
+        <v>30</v>
+      </c>
       <c r="H105">
         <v>480</v>
       </c>
@@ -2972,6 +3219,9 @@
       <c r="F106" t="s">
         <v>117</v>
       </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
       <c r="H106">
         <v>480</v>
       </c>
@@ -2992,6 +3242,9 @@
       <c r="F107" t="s">
         <v>114</v>
       </c>
+      <c r="G107">
+        <v>30</v>
+      </c>
       <c r="H107">
         <v>480</v>
       </c>
@@ -3012,6 +3265,9 @@
       <c r="F108" t="s">
         <v>90</v>
       </c>
+      <c r="G108">
+        <v>30</v>
+      </c>
       <c r="H108">
         <v>480</v>
       </c>
@@ -3035,6 +3291,9 @@
       <c r="F109" t="s">
         <v>118</v>
       </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
       <c r="H109">
         <v>480</v>
       </c>
@@ -3058,6 +3317,9 @@
       <c r="F110" t="s">
         <v>119</v>
       </c>
+      <c r="G110">
+        <v>30</v>
+      </c>
       <c r="H110">
         <v>480</v>
       </c>
@@ -3081,6 +3343,9 @@
       <c r="F111" t="s">
         <v>120</v>
       </c>
+      <c r="G111">
+        <v>30</v>
+      </c>
       <c r="H111">
         <v>480</v>
       </c>
@@ -3104,6 +3369,9 @@
       <c r="F112" t="s">
         <v>121</v>
       </c>
+      <c r="G112">
+        <v>30</v>
+      </c>
       <c r="H112">
         <v>480</v>
       </c>
@@ -3126,6 +3394,9 @@
       </c>
       <c r="F113" t="s">
         <v>23</v>
+      </c>
+      <c r="G113">
+        <v>30</v>
       </c>
       <c r="H113">
         <v>480</v>
@@ -3138,11 +3409,272 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8E668A-EF38-46AB-BBE2-219F259C8063}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A483436E-7523-47A0-B77D-347D7F578864}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data-raw/data/recepten.xlsx
+++ b/data-raw/data/recepten.xlsx
@@ -5,20 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eekhouti\Documents\GitHub\wisselmenu\data-raw\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/00327bc73045aed2/Documenten/GitHub/wisselmenu/data-raw/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D195A8-D08A-4050-9506-73C3D9880A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{59D195A8-D08A-4050-9506-73C3D9880A40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8E92DF5-B655-4C3C-A709-CA77664BE7C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9108" xr2:uid="{DEE8369E-45A2-425F-AF40-529136F4C573}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="4" xr2:uid="{DEE8369E-45A2-425F-AF40-529136F4C573}"/>
   </bookViews>
   <sheets>
     <sheet name="recepten" sheetId="1" r:id="rId1"/>
-    <sheet name="boodschappen" sheetId="3" r:id="rId2"/>
-    <sheet name="producten" sheetId="2" r:id="rId3"/>
+    <sheet name="recept" sheetId="4" r:id="rId2"/>
+    <sheet name="ingredienten" sheetId="5" r:id="rId3"/>
+    <sheet name="boodschappen" sheetId="3" r:id="rId4"/>
+    <sheet name="producten" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Extract" localSheetId="2">producten!$A:$A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ingredienten!$D$1:$D$219</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">producten!$A:$A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="241">
   <si>
     <t>genre</t>
   </si>
@@ -97,9 +122,6 @@
     <t>gehaktkruiden</t>
   </si>
   <si>
-    <t>ei</t>
-  </si>
-  <si>
     <t>pasta kip broccoli</t>
   </si>
   <si>
@@ -533,13 +555,246 @@
   </si>
   <si>
     <t>eieren</t>
+  </si>
+  <si>
+    <t>rijst</t>
+  </si>
+  <si>
+    <t>koolh-arm</t>
+  </si>
+  <si>
+    <t>gebakken bloemkoolrijst zal shangaipaksoi</t>
+  </si>
+  <si>
+    <t>stronk</t>
+  </si>
+  <si>
+    <t>shanghai paksoi</t>
+  </si>
+  <si>
+    <t>olijfolie</t>
+  </si>
+  <si>
+    <t>sesamolie</t>
+  </si>
+  <si>
+    <t>bloemkoolrijst</t>
+  </si>
+  <si>
+    <t>zalm</t>
+  </si>
+  <si>
+    <t>pastasalade</t>
+  </si>
+  <si>
+    <t>pastasalade pesto zalm</t>
+  </si>
+  <si>
+    <t>warmgerookte zalm</t>
+  </si>
+  <si>
+    <t>Laat de steelaanzet zitten en snijd de shanghaipaksoi elk in 4 parten. Verhit de olijfolie in een grote koekenpan en bak de paksoi (in delen) 2-3 min aan elke snijkant op middelhoog vuur. Verhit ondertussen de sesamolie in een hapjespan op laag vuur en bak de bloemkoolrijst ca. 3 min. op laag vuur. Schenk de sojasaus erbij en bak nog 2 min. mee. Breng op smaak met peper. Breek ondertussen de warmgerookte zalm in grove stukken. Verdeel de bloemkoolrijst over diepe kommen en serveer de zalm en paksoi ernaast.
+Verhit ondertussen de sesamolie in een hapjespan op laag vuur en bak de bloemkoolrijst ca. 3 min. op laag vuur. Schenk de sojasaus erbij en bak nog 2 min. mee. Breng op smaak met peper. Breek ondertussen de warmgerookte zalm in grove stukken.
+Maak warmgerookte zalm. Verdeel de bloemkoolrijst over diepe kommen en serveer de zalm en paksoi naast.</t>
+  </si>
+  <si>
+    <t>fusilli</t>
+  </si>
+  <si>
+    <t>cherry tomaten</t>
+  </si>
+  <si>
+    <t>groene pesto</t>
+  </si>
+  <si>
+    <t>rucola</t>
+  </si>
+  <si>
+    <t>lasagne</t>
+  </si>
+  <si>
+    <t>lasagnebladen</t>
+  </si>
+  <si>
+    <t>lasagnemix (honig)</t>
+  </si>
+  <si>
+    <t>italiaanse groenten</t>
+  </si>
+  <si>
+    <t>slamix</t>
+  </si>
+  <si>
+    <t>penne romige prei courgette</t>
+  </si>
+  <si>
+    <t>Kook penne; bak in een hapjespan spekreepjes; snijd de prei en courgette en boeg toe aan de spekjes, laat ongeveer 7 minuten meebakken; hak knofloof fijn en laat laatste minuut meebakken; voeg boter toe en laat al roerend smelten. Strooi de bloem erbij en laat dit al roerend een minuut meebakken; voeg de melk toe en laat de saus al roerend aan de kook komen en laat vervolgens even pruttelen; maak saus op smaak met citroensap, peper en zout.</t>
+  </si>
+  <si>
+    <t>penne</t>
+  </si>
+  <si>
+    <t>spekreepjes</t>
+  </si>
+  <si>
+    <t>prei</t>
+  </si>
+  <si>
+    <t>bloem</t>
+  </si>
+  <si>
+    <t>citroensap</t>
+  </si>
+  <si>
+    <t>teentje</t>
+  </si>
+  <si>
+    <t>nachoschotel</t>
+  </si>
+  <si>
+    <t>mexicaans</t>
+  </si>
+  <si>
+    <t>Verwarm de oven voor op 180 graden. Kruid het gehakt met de Mexicaanse gehaktkruiden.Snijd de tomaat in kleine blokjes.Neem een wokpan en bak het gehakt rul. Voeg na een minuut of twee ook de Mexicaanse groente en de tomaat toe en laat dit een minuut of vijf meebakken.Neem een ovenschaal en verdeel de helft van de tortilla chips over de bodem.Verdeel het gehaktmengsel over de tortilla chips.Neem de andere helft van de tortilla chips en smeer op elk chipje een klein likje crème fraîche. Vervolgens steek je de chips een beetje schuin in de schotel. Als je nog crème fraîche over hebt kun je dit verdelen over de schotel. Strooi de geraspte kaas over het gerecht en zet het ongeveer acht minuten in de oven.</t>
+  </si>
+  <si>
+    <t>tortilla chips (naturel)</t>
+  </si>
+  <si>
+    <t>rundergehakt</t>
+  </si>
+  <si>
+    <t>mexicaanse roerbakgroenten</t>
+  </si>
+  <si>
+    <t>crème fraîche</t>
+  </si>
+  <si>
+    <t>kip siam</t>
+  </si>
+  <si>
+    <t>zilvervliesrijst</t>
+  </si>
+  <si>
+    <t>paprika</t>
+  </si>
+  <si>
+    <t>oestersaus</t>
+  </si>
+  <si>
+    <t>cashewnoten</t>
+  </si>
+  <si>
+    <t>Snijd de broccoli in kleine roosjes, kook ze 3 minuten en spoel ze daarna goed koud om te voorkomen dat ze verder doorgaren.Kook de rijst volgens de instructies op de verpakking, giet het af en houd warm met de deksel op de pan.Snijd de kipfilet in blokjes en de paprika in stukken van ongeveer 1 x 1 cm.Verhit een scheutje olie in een wok en bak de kipfilet rondom bruin.Voeg de broccoli en paprika toe en laat dit een paar minuten meebakken. Hak ondertussen de knoflook fijn.Zet het vuur lager en voeg de oestersaus, ketjap en knoflook toe. Doe er vervolgens 100 ml water bij en laat het gerecht even pruttelen.Snijd ondertussen de bosui in ringen en hak de cashewnoten even grof door.Voeg één of twee theelepels water toe aan de maïzena en roer er een papje van. Gebruik dit papje om de saus indien nodig te binden. Voeg niet alle maïzena tegelijk toe om te voorkomen dat de saus TE dik wordt 🙂Garneer met de bosui en cashewnoten.</t>
+  </si>
+  <si>
+    <t>wereld</t>
+  </si>
+  <si>
+    <t>bobotie</t>
+  </si>
+  <si>
+    <t>Verwarm de oven voor op 180 graden. Kook de rijst volgens de instructies op de verpakking en houd het warm.Snijd het brood in blokjes en leg deze in de melk.Maak de ui schoon en snijd in halve ringen.Verhit de olie en boter in een koekenpan of hapjespan en bak de uien tot ze lekker zacht zijn.Voeg vervolgens kerriepoeder, zout, mangochutney, abrikozenjam, worcestersauce, kurkuma en azijn toe en roer alles goed door elkaar.Druk de melk uit het brood, bewaar de melk, voeg het brood, de rozijnen en het gehakt toe. Blijf rustig omscheppen tot het gehakt gaar is.Doe het gehaktmengsel in een licht ingevette ovenschaal.Klop de eieren los samen met het restant van de melk en een klein beetje zout en peper. Giet dit over het gehaktmengsel.Zet de bobotie zo’n 20 tot 30 minuten in de oven tot het mooi bruin is.</t>
+  </si>
+  <si>
+    <t>snee</t>
+  </si>
+  <si>
+    <t>brood (zonder korst)</t>
+  </si>
+  <si>
+    <t>mager rundergehakt</t>
+  </si>
+  <si>
+    <t>zout</t>
+  </si>
+  <si>
+    <t>kerriepoeder</t>
+  </si>
+  <si>
+    <t>kurkuma</t>
+  </si>
+  <si>
+    <t>abrikozenjam</t>
+  </si>
+  <si>
+    <t>mangochutney</t>
+  </si>
+  <si>
+    <t>azijn</t>
+  </si>
+  <si>
+    <t>worcestersauce</t>
+  </si>
+  <si>
+    <t>kofta</t>
+  </si>
+  <si>
+    <t>Griekse kruidenmix</t>
+  </si>
+  <si>
+    <t>paneermeel</t>
+  </si>
+  <si>
+    <t>sla</t>
+  </si>
+  <si>
+    <t>Snipper de ui fijn en hak de knoflook fijn. Snijd ook de peterselie fijn.Kruid het gehakt met de Griekse kruidenmix.Voeg het ei, de ui, knoflook en de peterselie bij het gehakt en kneed het geheel goed door.Draai ongeveer 10 snackballetjes van het gehakt. Rol ze even door het paneermeel.Verhit een scheutje olie in een braadpan en bak de balletjes op hoog vuur, totdat ze rondom bruin zijn.Voeg de tomatenblokjes toe en schep de balletjes om tot het geheel goed warm is.Rooster de pita’s in een broodrooster.Was de sla en snijd de komkommer en tomaat in plakken.Serveer de kofta met de pita, sla, komkommer en tomaat.</t>
+  </si>
+  <si>
+    <t>kip madras</t>
+  </si>
+  <si>
+    <t>Kook de rijst volgens de instructies op de verpakking. Giet het af en doe de deksel weer op de pan om het warm te houden.Snijd de kipfilet en paprika in reepjes.Hak de knoflook fijn en snipper de rode ui.Neem een ruime pan en bak de ui, knoflook, kerriepoeder en kurkuma even aan.Voeg vervolgens de kip en paprika toe en laat dit een paar minuten meebakken.Voeg nu de tomatenblokjes en crème fraîche toe en roer alles goed door elkaar.Laat alles een paar minuten pruttelen en snijd ondertussen de appel in blokjes.Voeg de appel toe, laat deze even mee verwarmen en maak de madras op smaak met peper en zout.</t>
+  </si>
+  <si>
+    <t>appel</t>
+  </si>
+  <si>
+    <t>beef shanghai</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>gember</t>
+  </si>
+  <si>
+    <t>runderbouillon</t>
+  </si>
+  <si>
+    <t>Kook de mie volgens de aanwijzingen op de verpakking. Giet af en spoel koud.Snipper de ui en snijd de prei in ringen. Hak de knoflook fijn.Snijd de gember in kleine stukjes.Hak de peterselie fijn en meng samen met wat peper en zout door het gehakt en draai kleine balletjes.Verhit een scheut olie in de pan en fruit de gember, knoflook en ui aan. Zet het even apart.Bak de gehaktballetjes op hoog vuur rondom bruin.Voeg de prei en tomatenpuree toe en bak kort mee.Voeg de runderbouillon, oestersaus en ketjap manis toe. Doe ook de ui, knoflook en gember weer terug in de pan.Laat op laag vuur inkoken tot een dikke saus.Meng de mie en taugé er doorheen en voeg naar smaak sambal toe.</t>
+  </si>
+  <si>
+    <t>spaghetti courgette-basilicumsaus</t>
+  </si>
+  <si>
+    <t>spaghetti rood</t>
+  </si>
+  <si>
+    <t>Kook de spaghetti volgens de instructies op de verpakking.Was de courgette en snijd de kontjes eraf. Schillen is niet nodig. Snijd in plakken en vervolgens in blokjes die net iets groter zijn dan de hamblokjes.Snipper het uitje en hak de knoflook fijn.Verhit een scheutje olie in de pan. Bak de Italiaanse kruiden met de blokjes courgette op middelhoog vuur enkele minuten aan.Schep 70 gram van de gebakken blokjes courgette uit de pan. Blend ze met de kookroom en 5 blaadjes basilicum tot een lobbige saus. Maak op smaak met zwarte peper en eventueel een beetje (zee)zout.Bak de hamblokjes mee met de overgebleven blokjes courgette in de pan.Zet het vuur lager en bak de ui en knoflook even mee.Snijd de cherrytomaatjes doormidden. Snijd grotere cherrytomaten in kwarten. Bak ze ongeveer 3 minuten mee.Voeg de courgette-basilicumsaus en de gekookte spaghetti toe. Warm alles goed door.Maak op smaak met citroensap en extra peper. Garneer met de overgebleven basilicum.</t>
+  </si>
+  <si>
+    <t>blaadjes</t>
+  </si>
+  <si>
+    <t>basilicum</t>
+  </si>
+  <si>
+    <t>hamblokjes</t>
+  </si>
+  <si>
+    <t>snacks</t>
+  </si>
+  <si>
+    <t>beleg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +804,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,11 +837,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,7 +859,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -892,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129ED249-F640-46C9-8763-FFC59B9BA506}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,19 +1181,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
         <v>83</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -942,7 +1207,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -962,7 +1227,7 @@
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -979,10 +1244,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1002,7 +1267,7 @@
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
@@ -1022,7 +1287,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -1039,10 +1304,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -1053,7 +1318,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1062,7 +1327,7 @@
         <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1076,7 +1341,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -1085,7 +1350,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -1099,7 +1364,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -1108,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -1122,7 +1387,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1131,7 +1396,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1145,7 +1410,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1162,16 +1427,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G13">
         <v>25</v>
@@ -1185,13 +1450,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1205,16 +1470,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -1225,13 +1490,13 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1245,13 +1510,13 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1265,16 +1530,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18">
         <v>15</v>
@@ -1285,16 +1550,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19">
         <v>15</v>
@@ -1302,19 +1567,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>150</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -1325,19 +1590,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21">
         <v>20</v>
@@ -1348,19 +1613,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22">
         <v>20</v>
@@ -1371,19 +1636,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>150</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>20</v>
@@ -1394,19 +1659,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>150</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -1417,19 +1682,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25">
         <v>20</v>
@@ -1440,16 +1705,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
         <v>34</v>
-      </c>
-      <c r="B26" t="s">
-        <v>35</v>
       </c>
       <c r="D26">
         <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1460,19 +1725,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -1480,16 +1745,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
         <v>34</v>
-      </c>
-      <c r="B28" t="s">
-        <v>35</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28">
         <v>15</v>
@@ -1497,19 +1762,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
         <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>35</v>
       </c>
       <c r="D29">
         <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>15</v>
@@ -1517,19 +1782,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" t="s">
-        <v>35</v>
       </c>
       <c r="D30">
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30">
         <v>15</v>
@@ -1537,19 +1802,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>35</v>
       </c>
       <c r="D31">
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31">
         <v>15</v>
@@ -1557,19 +1822,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
         <v>34</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
       </c>
       <c r="D32">
         <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>15</v>
@@ -1577,19 +1842,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>35</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33">
         <v>15</v>
@@ -1597,22 +1862,22 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
         <v>42</v>
       </c>
-      <c r="B34" t="s">
-        <v>43</v>
-      </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G34">
         <v>40</v>
@@ -1620,22 +1885,22 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G35">
         <v>40</v>
@@ -1643,22 +1908,22 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
         <v>42</v>
       </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36">
         <v>40</v>
@@ -1666,22 +1931,22 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
         <v>42</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G37">
         <v>40</v>
@@ -1689,16 +1954,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G38">
         <v>40</v>
@@ -1706,16 +1971,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>40</v>
@@ -1723,16 +1988,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G40">
         <v>40</v>
@@ -1740,19 +2005,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
         <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
       </c>
       <c r="D41">
         <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41">
         <v>15</v>
@@ -1763,19 +2028,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
       </c>
       <c r="D42">
         <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G42">
         <v>15</v>
@@ -1786,19 +2051,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
         <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
       </c>
       <c r="D43">
         <v>55</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>15</v>
@@ -1809,13 +2074,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
         <v>51</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G44">
         <v>15</v>
@@ -1826,19 +2091,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <v>150</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45">
         <v>15</v>
@@ -1849,19 +2114,19 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>75</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46">
         <v>15</v>
@@ -1872,19 +2137,19 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>55</v>
       </c>
       <c r="E47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G47">
         <v>15</v>
@@ -1895,13 +2160,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48">
         <v>15</v>
@@ -1912,19 +2177,19 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
       </c>
       <c r="D49">
         <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G49">
         <v>20</v>
@@ -1935,16 +2200,16 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" t="s">
-        <v>59</v>
       </c>
       <c r="D50">
         <v>150</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -1958,19 +2223,19 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" t="s">
         <v>58</v>
-      </c>
-      <c r="B51" t="s">
-        <v>59</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51">
         <v>20</v>
@@ -1981,19 +2246,19 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
         <v>58</v>
-      </c>
-      <c r="B52" t="s">
-        <v>59</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G52">
         <v>20</v>
@@ -2004,19 +2269,19 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
         <v>58</v>
-      </c>
-      <c r="B53" t="s">
-        <v>59</v>
       </c>
       <c r="D53">
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G53">
         <v>20</v>
@@ -2027,16 +2292,16 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" t="s">
         <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>89</v>
-      </c>
-      <c r="F54" t="s">
-        <v>64</v>
       </c>
       <c r="G54">
         <v>40</v>
@@ -2044,19 +2309,19 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>20</v>
       </c>
       <c r="E55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55">
         <v>40</v>
@@ -2064,19 +2329,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D56">
         <v>25</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G56">
         <v>40</v>
@@ -2084,19 +2349,19 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57">
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G57">
         <v>40</v>
@@ -2104,16 +2369,16 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
@@ -2124,13 +2389,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>40</v>
@@ -2138,10 +2403,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -2152,19 +2417,19 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D61">
         <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G61">
         <v>15</v>
@@ -2172,13 +2437,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G62">
         <v>15</v>
@@ -2186,16 +2451,16 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G63">
         <v>15</v>
@@ -2203,19 +2468,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64">
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64">
         <v>15</v>
@@ -2223,16 +2488,16 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G65">
         <v>15</v>
@@ -2240,13 +2505,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G66">
         <v>15</v>
@@ -2254,22 +2519,22 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" t="s">
         <v>71</v>
-      </c>
-      <c r="C67" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E67" t="s">
-        <v>88</v>
-      </c>
-      <c r="F67" t="s">
-        <v>72</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -2280,22 +2545,22 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68">
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G68">
         <v>30</v>
@@ -2306,22 +2571,22 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G69">
         <v>30</v>
@@ -2332,19 +2597,19 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G70">
         <v>30</v>
@@ -2355,22 +2620,22 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G71">
         <v>30</v>
@@ -2381,22 +2646,22 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D72">
         <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G72">
         <v>30</v>
@@ -2407,19 +2672,19 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G73">
         <v>30</v>
@@ -2430,22 +2695,22 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D74">
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -2456,22 +2721,22 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D75">
         <v>50</v>
       </c>
       <c r="E75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G75">
         <v>30</v>
@@ -2482,22 +2747,22 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G76">
         <v>30</v>
@@ -2508,19 +2773,19 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>30</v>
@@ -2534,13 +2799,13 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D78">
         <v>75</v>
       </c>
       <c r="E78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -2557,16 +2822,16 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D79">
         <v>50</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G79">
         <v>20</v>
@@ -2580,16 +2845,16 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80">
         <v>150</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G80">
         <v>20</v>
@@ -2603,16 +2868,16 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D81">
         <v>150</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G81">
         <v>20</v>
@@ -2626,16 +2891,16 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G82">
         <v>20</v>
@@ -2649,10 +2914,10 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G83">
         <v>20</v>
@@ -2663,19 +2928,19 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" t="s">
         <v>99</v>
       </c>
-      <c r="B84" t="s">
-        <v>100</v>
-      </c>
       <c r="C84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>125</v>
       </c>
       <c r="E84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -2689,22 +2954,22 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
         <v>99</v>
       </c>
-      <c r="B85" t="s">
-        <v>100</v>
-      </c>
       <c r="C85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D85">
         <v>75</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G85">
         <v>30</v>
@@ -2715,19 +2980,19 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
         <v>99</v>
       </c>
-      <c r="B86" t="s">
-        <v>100</v>
-      </c>
       <c r="C86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G86">
         <v>30</v>
@@ -2738,22 +3003,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
         <v>99</v>
       </c>
-      <c r="B87" t="s">
-        <v>100</v>
-      </c>
       <c r="C87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D87">
         <v>75</v>
       </c>
       <c r="E87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G87">
         <v>30</v>
@@ -2764,19 +3029,19 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
         <v>99</v>
       </c>
-      <c r="B88" t="s">
-        <v>100</v>
-      </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G88">
         <v>30</v>
@@ -2787,19 +3052,19 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
         <v>99</v>
       </c>
-      <c r="B89" t="s">
-        <v>100</v>
-      </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>30</v>
@@ -2810,22 +3075,22 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E90" t="s">
+        <v>102</v>
+      </c>
+      <c r="F90" t="s">
         <v>103</v>
-      </c>
-      <c r="F90" t="s">
-        <v>104</v>
       </c>
       <c r="G90">
         <v>30</v>
@@ -2836,22 +3101,22 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91">
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G91">
         <v>30</v>
@@ -2862,19 +3127,19 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="s">
         <v>99</v>
       </c>
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92" t="s">
         <v>105</v>
-      </c>
-      <c r="F92" t="s">
-        <v>106</v>
       </c>
       <c r="G92">
         <v>30</v>
@@ -2885,19 +3150,19 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
       <c r="C93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D93">
         <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
@@ -2911,22 +3176,22 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="s">
-        <v>100</v>
-      </c>
       <c r="C94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94">
         <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G94">
         <v>30</v>
@@ -2937,16 +3202,16 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
-        <v>100</v>
-      </c>
       <c r="C95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G95">
         <v>30</v>
@@ -2957,19 +3222,19 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
       <c r="C96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G96">
         <v>30</v>
@@ -2980,22 +3245,22 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D97">
         <v>40</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G97">
         <v>20</v>
@@ -3006,22 +3271,22 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G98">
         <v>20</v>
@@ -3032,22 +3297,22 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99">
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G99">
         <v>20</v>
@@ -3058,22 +3323,22 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>20</v>
@@ -3084,19 +3349,19 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G101">
         <v>20</v>
@@ -3107,19 +3372,19 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G102">
         <v>20</v>
@@ -3130,19 +3395,19 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103">
         <v>20</v>
@@ -3153,22 +3418,22 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D104">
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G104">
         <v>20</v>
@@ -3179,22 +3444,22 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D105">
         <v>60</v>
       </c>
       <c r="E105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F105" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G105">
         <v>30</v>
@@ -3205,19 +3470,19 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" t="s">
         <v>116</v>
-      </c>
-      <c r="C106" t="s">
-        <v>122</v>
-      </c>
-      <c r="D106" t="s">
-        <v>87</v>
-      </c>
-      <c r="F106" t="s">
-        <v>117</v>
       </c>
       <c r="G106">
         <v>30</v>
@@ -3228,19 +3493,19 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G107">
         <v>30</v>
@@ -3251,19 +3516,19 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G108">
         <v>30</v>
@@ -3274,22 +3539,22 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E109" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G109">
         <v>30</v>
@@ -3300,22 +3565,22 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D110">
         <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G110">
         <v>30</v>
@@ -3326,22 +3591,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D111">
         <v>200</v>
       </c>
       <c r="E111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F111" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G111">
         <v>30</v>
@@ -3352,22 +3617,22 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D112">
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F112" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G112">
         <v>30</v>
@@ -3378,22 +3643,22 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D113">
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G113">
         <v>30</v>
@@ -3409,6 +3674,3342 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85936690-3A7D-4B01-A8E1-3514F0927015}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" t="s">
+        <v>206</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4754AB9-DBD9-4447-92D6-2622041C3F3C}">
+  <dimension ref="A1:D219"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>150</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>150</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>150</v>
+      </c>
+      <c r="C45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>150</v>
+      </c>
+      <c r="C50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>75</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>1.5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>50</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>12.5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>2.5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>2.5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75">
+        <v>50</v>
+      </c>
+      <c r="C75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76">
+        <v>100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>234</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79">
+        <v>50</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80">
+        <v>150</v>
+      </c>
+      <c r="C80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82">
+        <v>35</v>
+      </c>
+      <c r="C82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84">
+        <v>125</v>
+      </c>
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85">
+        <v>75</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86">
+        <v>0.5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87">
+        <v>75</v>
+      </c>
+      <c r="C87" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88">
+        <v>0.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89">
+        <v>1.5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90">
+        <v>0.5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>102</v>
+      </c>
+      <c r="D90" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D91" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92">
+        <v>0.25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93">
+        <v>40</v>
+      </c>
+      <c r="C93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>25</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>0.5</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97">
+        <v>40</v>
+      </c>
+      <c r="C97" t="s">
+        <v>84</v>
+      </c>
+      <c r="D97" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98">
+        <v>0.5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>102</v>
+      </c>
+      <c r="D98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99">
+        <v>50</v>
+      </c>
+      <c r="C99" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>110</v>
+      </c>
+      <c r="B100">
+        <v>0.5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101">
+        <v>0.5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102">
+        <v>0.5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104">
+        <v>50</v>
+      </c>
+      <c r="C104" t="s">
+        <v>84</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105">
+        <v>60</v>
+      </c>
+      <c r="C105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106">
+        <v>0.5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>115</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109">
+        <v>0.5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
+      </c>
+      <c r="D109" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>87</v>
+      </c>
+      <c r="D110" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>115</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114">
+        <v>0.5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+      <c r="D114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>166</v>
+      </c>
+      <c r="B115">
+        <v>0.25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>85</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116">
+        <v>0.25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
+      </c>
+      <c r="D116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+      <c r="C117" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>85</v>
+      </c>
+      <c r="D118" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>166</v>
+      </c>
+      <c r="B119">
+        <v>75</v>
+      </c>
+      <c r="C119" t="s">
+        <v>84</v>
+      </c>
+      <c r="D119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120">
+        <v>75</v>
+      </c>
+      <c r="C120" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121">
+        <v>0.25</v>
+      </c>
+      <c r="D121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122">
+        <v>100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>84</v>
+      </c>
+      <c r="D122" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>174</v>
+      </c>
+      <c r="B123">
+        <v>20</v>
+      </c>
+      <c r="C123" t="s">
+        <v>84</v>
+      </c>
+      <c r="D123" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>84</v>
+      </c>
+      <c r="D124" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125">
+        <v>75</v>
+      </c>
+      <c r="C125" t="s">
+        <v>84</v>
+      </c>
+      <c r="D125" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>181</v>
+      </c>
+      <c r="D126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>181</v>
+      </c>
+      <c r="D127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>181</v>
+      </c>
+      <c r="B129">
+        <v>100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D129" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>181</v>
+      </c>
+      <c r="B132">
+        <v>0.25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>186</v>
+      </c>
+      <c r="B134">
+        <v>60</v>
+      </c>
+      <c r="C134" t="s">
+        <v>84</v>
+      </c>
+      <c r="D134" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>186</v>
+      </c>
+      <c r="B135">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>84</v>
+      </c>
+      <c r="D135" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136">
+        <v>100</v>
+      </c>
+      <c r="C136" t="s">
+        <v>84</v>
+      </c>
+      <c r="D136" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>186</v>
+      </c>
+      <c r="B137">
+        <v>100</v>
+      </c>
+      <c r="C137" t="s">
+        <v>84</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138">
+        <v>0.5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>193</v>
+      </c>
+      <c r="D138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>186</v>
+      </c>
+      <c r="B139">
+        <v>7.5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140">
+        <v>7.5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>186</v>
+      </c>
+      <c r="B141">
+        <v>100</v>
+      </c>
+      <c r="C141" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>186</v>
+      </c>
+      <c r="B142">
+        <v>2.5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>194</v>
+      </c>
+      <c r="B143">
+        <v>40</v>
+      </c>
+      <c r="C143" t="s">
+        <v>84</v>
+      </c>
+      <c r="D143" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144">
+        <v>50</v>
+      </c>
+      <c r="C144" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>194</v>
+      </c>
+      <c r="B145">
+        <v>200</v>
+      </c>
+      <c r="C145" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146">
+        <v>0.5</v>
+      </c>
+      <c r="D146" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147">
+        <v>35</v>
+      </c>
+      <c r="C147" t="s">
+        <v>84</v>
+      </c>
+      <c r="D147" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>194</v>
+      </c>
+      <c r="B148">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>84</v>
+      </c>
+      <c r="D148" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>194</v>
+      </c>
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150">
+        <v>75</v>
+      </c>
+      <c r="C150" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151">
+        <v>65</v>
+      </c>
+      <c r="C151" t="s">
+        <v>84</v>
+      </c>
+      <c r="D151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>201</v>
+      </c>
+      <c r="B152">
+        <v>100</v>
+      </c>
+      <c r="C152" t="s">
+        <v>84</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153">
+        <v>0.5</v>
+      </c>
+      <c r="D153" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>201</v>
+      </c>
+      <c r="B154">
+        <v>0.5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>193</v>
+      </c>
+      <c r="D154" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>201</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155" t="s">
+        <v>87</v>
+      </c>
+      <c r="D155" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>201</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D156" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>201</v>
+      </c>
+      <c r="B157">
+        <v>2.5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>84</v>
+      </c>
+      <c r="D157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>201</v>
+      </c>
+      <c r="B158">
+        <v>15</v>
+      </c>
+      <c r="C158" t="s">
+        <v>84</v>
+      </c>
+      <c r="D158" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>201</v>
+      </c>
+      <c r="B159">
+        <v>15</v>
+      </c>
+      <c r="C159" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>208</v>
+      </c>
+      <c r="B160">
+        <v>65</v>
+      </c>
+      <c r="C160" t="s">
+        <v>84</v>
+      </c>
+      <c r="D160" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>208</v>
+      </c>
+      <c r="B161">
+        <v>0.5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>210</v>
+      </c>
+      <c r="D161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>208</v>
+      </c>
+      <c r="B162">
+        <v>40</v>
+      </c>
+      <c r="C162" t="s">
+        <v>87</v>
+      </c>
+      <c r="D162" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="D163" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>208</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>84</v>
+      </c>
+      <c r="D165" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>208</v>
+      </c>
+      <c r="B166">
+        <v>75</v>
+      </c>
+      <c r="C166" t="s">
+        <v>84</v>
+      </c>
+      <c r="D166" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>208</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>84</v>
+      </c>
+      <c r="D167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>208</v>
+      </c>
+      <c r="B168">
+        <v>0.5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>208</v>
+      </c>
+      <c r="B169">
+        <v>2.5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>84</v>
+      </c>
+      <c r="D169" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>208</v>
+      </c>
+      <c r="B170">
+        <v>0.5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>102</v>
+      </c>
+      <c r="D170" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>208</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>84</v>
+      </c>
+      <c r="D171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>208</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>208</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>87</v>
+      </c>
+      <c r="D173" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>208</v>
+      </c>
+      <c r="B174">
+        <v>2.5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>208</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176">
+        <v>0.5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>220</v>
+      </c>
+      <c r="B177">
+        <v>0.5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>193</v>
+      </c>
+      <c r="D177" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>220</v>
+      </c>
+      <c r="B179">
+        <v>100</v>
+      </c>
+      <c r="C179" t="s">
+        <v>84</v>
+      </c>
+      <c r="D179" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>220</v>
+      </c>
+      <c r="B180">
+        <v>1.5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>102</v>
+      </c>
+      <c r="D180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>220</v>
+      </c>
+      <c r="B181">
+        <v>0.5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>220</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>220</v>
+      </c>
+      <c r="B183">
+        <v>200</v>
+      </c>
+      <c r="C183" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>220</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>220</v>
+      </c>
+      <c r="B185">
+        <v>0.5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B186">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>220</v>
+      </c>
+      <c r="B187">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>84</v>
+      </c>
+      <c r="D187" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>225</v>
+      </c>
+      <c r="B188">
+        <v>65</v>
+      </c>
+      <c r="C188" t="s">
+        <v>84</v>
+      </c>
+      <c r="D188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>225</v>
+      </c>
+      <c r="B189">
+        <v>100</v>
+      </c>
+      <c r="C189" t="s">
+        <v>84</v>
+      </c>
+      <c r="D189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>225</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>225</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>225</v>
+      </c>
+      <c r="B192">
+        <v>0.5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>225</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" t="s">
+        <v>85</v>
+      </c>
+      <c r="D193" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194">
+        <v>0.5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>225</v>
+      </c>
+      <c r="B195">
+        <v>150</v>
+      </c>
+      <c r="C195" t="s">
+        <v>84</v>
+      </c>
+      <c r="D195" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>225</v>
+      </c>
+      <c r="B196">
+        <v>30</v>
+      </c>
+      <c r="C196" t="s">
+        <v>84</v>
+      </c>
+      <c r="D196" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>225</v>
+      </c>
+      <c r="B197">
+        <v>0.5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>228</v>
+      </c>
+      <c r="B198">
+        <v>60</v>
+      </c>
+      <c r="C198" t="s">
+        <v>84</v>
+      </c>
+      <c r="D198" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199">
+        <v>0.5</v>
+      </c>
+      <c r="D199" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200">
+        <v>100</v>
+      </c>
+      <c r="C200" t="s">
+        <v>84</v>
+      </c>
+      <c r="D200" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201">
+        <v>0.5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>193</v>
+      </c>
+      <c r="D201" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>229</v>
+      </c>
+      <c r="D202" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>84</v>
+      </c>
+      <c r="D203" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>228</v>
+      </c>
+      <c r="B204">
+        <v>100</v>
+      </c>
+      <c r="C204" t="s">
+        <v>84</v>
+      </c>
+      <c r="D204" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>84</v>
+      </c>
+      <c r="D205" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>228</v>
+      </c>
+      <c r="B206">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>87</v>
+      </c>
+      <c r="D206" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>87</v>
+      </c>
+      <c r="D207" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>228</v>
+      </c>
+      <c r="B208">
+        <v>100</v>
+      </c>
+      <c r="C208" t="s">
+        <v>87</v>
+      </c>
+      <c r="D208" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>228</v>
+      </c>
+      <c r="B209">
+        <v>50</v>
+      </c>
+      <c r="C209" t="s">
+        <v>84</v>
+      </c>
+      <c r="D209" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210">
+        <v>2.5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>84</v>
+      </c>
+      <c r="D210" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>233</v>
+      </c>
+      <c r="B211">
+        <v>60</v>
+      </c>
+      <c r="C211" t="s">
+        <v>84</v>
+      </c>
+      <c r="D211" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>233</v>
+      </c>
+      <c r="B212">
+        <v>175</v>
+      </c>
+      <c r="C212" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>233</v>
+      </c>
+      <c r="B213">
+        <v>0.5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>233</v>
+      </c>
+      <c r="B214">
+        <v>0.5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>193</v>
+      </c>
+      <c r="D214" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>233</v>
+      </c>
+      <c r="B215">
+        <v>0.5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>102</v>
+      </c>
+      <c r="D215" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>233</v>
+      </c>
+      <c r="B216">
+        <v>30</v>
+      </c>
+      <c r="C216" t="s">
+        <v>87</v>
+      </c>
+      <c r="D216" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>233</v>
+      </c>
+      <c r="B217">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>236</v>
+      </c>
+      <c r="D217" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218">
+        <v>65</v>
+      </c>
+      <c r="C218" t="s">
+        <v>84</v>
+      </c>
+      <c r="D218" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>233</v>
+      </c>
+      <c r="B219">
+        <v>75</v>
+      </c>
+      <c r="C219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8E668A-EF38-46AB-BBE2-219F259C8063}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -3423,245 +7024,245 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
         <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
         <v>140</v>
-      </c>
-      <c r="D8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
         <v>153</v>
-      </c>
-      <c r="D19" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3669,12 +7270,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A483436E-7523-47A0-B77D-347D7F578864}">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3683,611 +7284,972 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>3</v>
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:A121">_xlfn.UNIQUE(_xlfn._xlws.FILTER(ingredienten!D:D,ingredienten!D:D&lt;&gt;""))</f>
+        <v>ingredienten</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" t="str">
+        <v>fussili</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="A3" t="str">
+        <v>spinazie</v>
       </c>
       <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <v>pesto</v>
+      </c>
+      <c r="B4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <v>tomaatjes</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <v>gerookte zalm</v>
+      </c>
+      <c r="B6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <v>kookroom</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <v>aardappels</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <v>bloemkool</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <v>appelmoes</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <v>gehakt</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <v>gehaktkruiden</v>
+      </c>
+      <c r="B12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <v>eieren</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <v>broccoli</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <v>courgette</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <v>kipfilet</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <v>peentjes</v>
+      </c>
+      <c r="B17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <v>aardappelschijfjes</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <v>vlees naar keuze</v>
+      </c>
+      <c r="B19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <v>snijbonen</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <v>krieltjes</v>
+      </c>
+      <c r="B21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <v>mexicaanse kruiden</v>
+      </c>
+      <c r="B22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
+      <c r="A23" t="str">
+        <v>wraps</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>37</v>
+      <c r="A24" t="str">
+        <v>tomaten</v>
       </c>
       <c r="B24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <v>komkommer</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <v>ijsbergsla</v>
+      </c>
+      <c r="B26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <v>kidneybonen</v>
+      </c>
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <v>geraspte kaas</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <v>aubergine</v>
+      </c>
+      <c r="B29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <v>kipgehakt</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <v>tomatenpuree</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <v>rozijnen</v>
+      </c>
+      <c r="B32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <v>kaneel</v>
+      </c>
+      <c r="B33" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>53</v>
+      <c r="A34" t="str">
+        <v>wokgroenten</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>54</v>
+      <c r="A35" t="str">
+        <v>mie</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>55</v>
+      <c r="A36" t="str">
+        <v>woksaus</v>
       </c>
       <c r="B36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <v>runderreepjes</v>
+      </c>
+      <c r="B37" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <v>kokosmelk</v>
+      </c>
+      <c r="B38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <v>groene curry</v>
+      </c>
+      <c r="B39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <v>linzen</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <v>puntpaprika's</v>
+      </c>
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <v>feta</v>
+      </c>
+      <c r="B42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <v>kippendij</v>
+      </c>
+      <c r="B43" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <v>shoarma kruiden</v>
+      </c>
+      <c r="B44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>69</v>
+      <c r="A45" t="str">
+        <v>rode paprika</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>82</v>
+      <c r="A46" t="str">
+        <v>pitabroodjes</v>
       </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>70</v>
+      <c r="A47" t="str">
+        <v>knoflooksaus</v>
       </c>
       <c r="B47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <v>sojasaus</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <v>dondkere basterdsuiker</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <v>sesamzaad</v>
+      </c>
+      <c r="B50" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>90</v>
+      <c r="A51" t="str">
+        <v>knoflook</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>75</v>
+      <c r="A52" t="str">
+        <v>maizena</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>76</v>
+      <c r="A53" t="str">
+        <v>sperziebonen</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>77</v>
+      <c r="A54" t="str">
+        <v>gele paprika</v>
       </c>
       <c r="B54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>78</v>
+      <c r="A55" t="str">
+        <v>bosui</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>79</v>
+      <c r="A56" t="str">
+        <v>taugé</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>80</v>
+      <c r="A57" t="str">
+        <v>rosbieflapjes</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>95</v>
+      <c r="A58" t="str">
+        <v>spaghetti</v>
       </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>96</v>
+      <c r="A59" t="str">
+        <v>italiaanse wokgroenten</v>
       </c>
       <c r="B59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <v>tomatenblokjes</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <v>italiaanse kruiden</v>
+      </c>
+      <c r="B61" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <v>biefstuk</v>
+      </c>
+      <c r="B62" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <v>kastanjechampignons</v>
+      </c>
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <v>paprikapoeder</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <v>runderbouillonblokje</v>
+      </c>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <v>zilveruitjes</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <v>peterselie</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <v>ui</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <v>yoghurt</v>
+      </c>
+      <c r="B69" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <v>sambal</v>
+      </c>
+      <c r="B70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <v>rode ui</v>
+      </c>
+      <c r="B71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <v>rode peper</v>
+      </c>
+      <c r="B72" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <v>trassi</v>
+      </c>
+      <c r="B73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <v>ketjap manis</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <v>bami/nasi groenten</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <v>schouderham</v>
+      </c>
+      <c r="B76" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>106</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <v>shanghai paksoi</v>
+      </c>
+      <c r="B77" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <v>olijfolie</v>
+      </c>
+      <c r="B78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <v>sesamolie</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <v>bloemkoolrijst</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <v>zalm</v>
+      </c>
+      <c r="B81" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <v>fusilli</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <v>cherry tomaten</v>
+      </c>
+      <c r="B83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <v>groene pesto</v>
+      </c>
+      <c r="B84" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <v>rucola</v>
+      </c>
+      <c r="B85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <v>lasagnebladen</v>
+      </c>
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <v>lasagnemix (honig)</v>
+      </c>
+      <c r="B87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>112</v>
-      </c>
-      <c r="B69" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>113</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <v>melk</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <v>italiaanse groenten</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <v>slamix</v>
+      </c>
+      <c r="B90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <v>penne</v>
+      </c>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <v>spekreepjes</v>
+      </c>
+      <c r="B92" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <v>prei</v>
+      </c>
+      <c r="B93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <v>boter</v>
+      </c>
+      <c r="B94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <v>bloem</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <v>citroensap</v>
+      </c>
+      <c r="B96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <v>tortilla chips (naturel)</v>
+      </c>
+      <c r="B97" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <v>rundergehakt</v>
+      </c>
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <v>mexicaanse roerbakgroenten</v>
+      </c>
+      <c r="B99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <v>crème fraîche</v>
+      </c>
+      <c r="B100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <v>zilvervliesrijst</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <v>paprika</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <v>oestersaus</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <v>cashewnoten</v>
+      </c>
+      <c r="B104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <v>brood (zonder korst)</v>
+      </c>
+      <c r="B105" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <v>mager rundergehakt</v>
+      </c>
+      <c r="B106" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <v>zout</v>
+      </c>
+      <c r="B107" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>117</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <v>kerriepoeder</v>
+      </c>
+      <c r="B108" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <v>kurkuma</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <v>abrikozenjam</v>
+      </c>
+      <c r="B110" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <v>mangochutney</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <v>azijn</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <v>worcestersauce</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <v>Griekse kruidenmix</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <v>paneermeel</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <v>sla</v>
+      </c>
+      <c r="B116" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <v>appel</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <v>gember</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <v>runderbouillon</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <v>basilicum</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <v>hamblokjes</v>
+      </c>
+      <c r="B121" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
